--- a/uploads/Dabur_Dabur_eco_report.xlsx
+++ b/uploads/Dabur_Dabur_eco_report.xlsx
@@ -490,81 +490,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lenah Cheloti</t>
+          <t>Ochieng Charles</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-25.00</t>
+          <t>-29.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.71%</t>
+          <t>17.14%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Moses  Ngugi</t>
+          <t>Lenah Cheloti</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-28.00</t>
+          <t>-25.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>10.71%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ochieng Charles</t>
+          <t>Moses  Ngugi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-29.00</t>
+          <t>-28.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17.14%</t>
+          <t>6.67%</t>
         </is>
       </c>
     </row>
